--- a/performance/performance table.xlsx
+++ b/performance/performance table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzeyu/Desktop/recbole_develop/RecBole-MetaRec/performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{739551D8-B421-1C49-BC1E-417B10124754}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B08A9D-148A-B84F-B345-C1637C27F6CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15660" xr2:uid="{A7EF32D7-605C-9540-A4FF-E83AC26CB9E7}"/>
   </bookViews>
@@ -122,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,6 +144,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="4"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -230,7 +237,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -257,6 +264,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -577,8 +587,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -628,21 +638,6 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5">
-        <v>0.48970000000000002</v>
-      </c>
-      <c r="E2" s="5">
-        <v>0.48970000000000002</v>
-      </c>
-      <c r="F2" s="5">
-        <v>0.96550000000000002</v>
-      </c>
-      <c r="G2" s="5">
-        <v>0.4965</v>
-      </c>
-      <c r="H2" s="5">
-        <v>0.70979999999999999</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="1" t="s">
@@ -652,21 +647,11 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5">
-        <v>0.61029999999999995</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0.61029999999999995</v>
-      </c>
-      <c r="F3" s="5">
-        <v>1</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="H3" s="5">
-        <v>0.71440000000000003</v>
-      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="1" t="s">
@@ -678,21 +663,11 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5">
-        <v>0.61029999999999995</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0.61029999999999995</v>
-      </c>
-      <c r="F4" s="5">
-        <v>1</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0.59289999999999998</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0.71440000000000003</v>
-      </c>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="1" t="s">
@@ -702,21 +677,11 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5">
-        <v>0.68279999999999996</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0.68279999999999996</v>
-      </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>0.68730000000000002</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0.81950000000000001</v>
-      </c>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="1" t="s">
@@ -726,21 +691,11 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="5">
-        <v>0.68279999999999996</v>
-      </c>
-      <c r="E6" s="5">
-        <v>0.68279999999999996</v>
-      </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.68730000000000002</v>
-      </c>
-      <c r="H6" s="5">
-        <v>0.81950000000000001</v>
-      </c>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="1" t="s">
@@ -752,21 +707,11 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="5">
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0.50339999999999996</v>
-      </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>0.51049999999999995</v>
-      </c>
-      <c r="H7" s="5">
-        <v>0.74539999999999995</v>
-      </c>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="2" t="s">
@@ -776,21 +721,11 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="E8" s="5">
-        <v>0.52410000000000001</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0.98280000000000001</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0.51980000000000004</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0.71030000000000004</v>
-      </c>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="1:8" ht="18">
       <c r="A9" s="4"/>
@@ -837,21 +772,11 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0.49459999999999998</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>0.4899</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0.69040000000000001</v>
-      </c>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
     </row>
     <row r="12" spans="1:8" ht="18">
       <c r="A12" s="1" t="s">
@@ -861,21 +786,11 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5">
-        <v>0.59230000000000005</v>
-      </c>
-      <c r="E12" s="5">
-        <v>0.59230000000000005</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0.6079</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0.80730000000000002</v>
-      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
     </row>
     <row r="13" spans="1:8" ht="18">
       <c r="A13" s="1" t="s">
@@ -887,21 +802,11 @@
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5">
-        <v>0.59230000000000005</v>
-      </c>
-      <c r="E13" s="5">
-        <v>0.59230000000000005</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0.6079</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0.80730000000000002</v>
-      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
     </row>
     <row r="14" spans="1:8" ht="18">
       <c r="A14" s="1" t="s">
@@ -911,21 +816,11 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.71179999999999999</v>
-      </c>
-      <c r="F14" s="5">
-        <v>1</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0.7429</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0.88949999999999996</v>
-      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
     </row>
     <row r="15" spans="1:8" ht="18">
       <c r="A15" s="1" t="s">
@@ -935,21 +830,11 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5">
-        <v>0.71120000000000005</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0.71120000000000005</v>
-      </c>
-      <c r="F15" s="5">
-        <v>1</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0.74229999999999996</v>
-      </c>
-      <c r="H15" s="5">
-        <v>0.88949999999999996</v>
-      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
     </row>
     <row r="16" spans="1:8" ht="18">
       <c r="A16" s="1" t="s">
@@ -961,21 +846,11 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5">
-        <v>0.52139999999999997</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0.52139999999999997</v>
-      </c>
-      <c r="F16" s="5">
-        <v>1</v>
-      </c>
-      <c r="G16" s="5">
-        <v>0.52429999999999999</v>
-      </c>
-      <c r="H16" s="5">
-        <v>0.72030000000000005</v>
-      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
     </row>
     <row r="17" spans="1:8" ht="18">
       <c r="A17" s="1" t="s">
@@ -985,21 +860,11 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0.52080000000000004</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0.99680000000000002</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0.52459999999999996</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0.72270000000000001</v>
-      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
     </row>
     <row r="19" spans="1:8" ht="18">
       <c r="A19" s="1" t="s">
@@ -1037,21 +902,11 @@
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5">
-        <v>0.50580000000000003</v>
-      </c>
-      <c r="E20" s="5">
-        <v>0.50580000000000003</v>
-      </c>
-      <c r="F20" s="5">
-        <v>0.99609999999999999</v>
-      </c>
-      <c r="G20" s="5">
-        <v>0.50290000000000001</v>
-      </c>
-      <c r="H20" s="5">
-        <v>0.69669999999999999</v>
-      </c>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
     </row>
     <row r="21" spans="1:8" ht="18">
       <c r="A21" s="1" t="s">
@@ -1061,21 +916,11 @@
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="E21" s="5">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="F21" s="5">
-        <v>1</v>
-      </c>
-      <c r="G21" s="5">
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="H21" s="5">
-        <v>0.83430000000000004</v>
-      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+      <c r="F21" s="5"/>
+      <c r="G21" s="5"/>
+      <c r="H21" s="5"/>
     </row>
     <row r="22" spans="1:8" ht="18">
       <c r="A22" s="1" t="s">
@@ -1087,21 +932,11 @@
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="E22" s="5">
-        <v>0.64129999999999998</v>
-      </c>
-      <c r="F22" s="5">
-        <v>1</v>
-      </c>
-      <c r="G22" s="5">
-        <v>0.66210000000000002</v>
-      </c>
-      <c r="H22" s="5">
-        <v>0.83430000000000004</v>
-      </c>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="5"/>
+      <c r="G22" s="5"/>
+      <c r="H22" s="5"/>
     </row>
     <row r="23" spans="1:8" ht="18">
       <c r="A23" s="1" t="s">
@@ -1111,21 +946,11 @@
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="5">
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="E23" s="5">
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="F23" s="5">
-        <v>1</v>
-      </c>
-      <c r="G23" s="5">
-        <v>0.75060000000000004</v>
-      </c>
-      <c r="H23" s="5">
-        <v>0.89510000000000001</v>
-      </c>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
     </row>
     <row r="24" spans="1:8" ht="18">
       <c r="A24" s="1" t="s">
@@ -1135,21 +960,11 @@
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5">
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="E24" s="5">
-        <v>0.72550000000000003</v>
-      </c>
-      <c r="F24" s="5">
-        <v>1</v>
-      </c>
-      <c r="G24" s="5">
-        <v>0.75060000000000004</v>
-      </c>
-      <c r="H24" s="5">
-        <v>0.89510000000000001</v>
-      </c>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
     </row>
     <row r="25" spans="1:8" ht="18">
       <c r="A25" s="1" t="s">
@@ -1161,21 +976,11 @@
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="5">
-        <v>0.71940000000000004</v>
-      </c>
-      <c r="E25" s="5">
-        <v>0.71940000000000004</v>
-      </c>
-      <c r="F25" s="5">
-        <v>1</v>
-      </c>
-      <c r="G25" s="5">
-        <v>0.74609999999999999</v>
-      </c>
-      <c r="H25" s="5">
-        <v>0.89500000000000002</v>
-      </c>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
+      <c r="F25" s="5"/>
+      <c r="G25" s="5"/>
+      <c r="H25" s="5"/>
     </row>
     <row r="26" spans="1:8" ht="18">
       <c r="A26" s="1" t="s">
@@ -1185,21 +990,11 @@
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="5">
-        <v>0.71940000000000004</v>
-      </c>
-      <c r="E26" s="5">
-        <v>0.71940000000000004</v>
-      </c>
-      <c r="F26" s="5">
-        <v>1</v>
-      </c>
-      <c r="G26" s="5">
-        <v>0.74609999999999999</v>
-      </c>
-      <c r="H26" s="5">
-        <v>0.89500000000000002</v>
-      </c>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
+      <c r="F26" s="5"/>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="9">

--- a/performance/performance table.xlsx
+++ b/performance/performance table.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zhangzeyu/Desktop/recbole_develop/RecBole-MetaRec/performance/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B08A9D-148A-B84F-B345-C1637C27F6CC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED7535A2-3DDC-CC44-846A-E81EE0683ED4}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="15660" xr2:uid="{A7EF32D7-605C-9540-A4FF-E83AC26CB9E7}"/>
   </bookViews>
@@ -122,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="0.0000_ "/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -144,13 +144,6 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="4"/>
-      <charset val="134"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -237,7 +230,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -264,9 +257,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,8 +577,8 @@
   </sheetPr>
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="125" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -638,6 +628,21 @@
       <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="D2" s="5">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="E2" s="5">
+        <v>0.53449999999999998</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="H2" s="5">
+        <v>0.7359</v>
+      </c>
     </row>
     <row r="3" spans="1:8" ht="18">
       <c r="A3" s="1" t="s">
@@ -647,11 +652,21 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
+      <c r="D3" s="5">
+        <v>0.61029999999999995</v>
+      </c>
+      <c r="E3" s="5">
+        <v>0.61029999999999995</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.59289999999999998</v>
+      </c>
+      <c r="H3" s="5">
+        <v>0.71440000000000003</v>
+      </c>
     </row>
     <row r="4" spans="1:8" ht="18">
       <c r="A4" s="1" t="s">
@@ -663,11 +678,21 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="D4" s="5">
+        <v>0.5806</v>
+      </c>
+      <c r="E4" s="5">
+        <v>0.5806</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>0.59940000000000004</v>
+      </c>
+      <c r="H4" s="5">
+        <v>0.80700000000000005</v>
+      </c>
     </row>
     <row r="5" spans="1:8" ht="18">
       <c r="A5" s="1" t="s">
@@ -677,11 +702,21 @@
       <c r="C5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="D5" s="5">
+        <v>0.5655</v>
+      </c>
+      <c r="E5" s="5">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="F5" s="5">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="G5" s="5">
+        <v>0.5736</v>
+      </c>
+      <c r="H5" s="5">
+        <v>0.67130000000000001</v>
+      </c>
     </row>
     <row r="6" spans="1:8" ht="18">
       <c r="A6" s="1" t="s">
@@ -691,11 +726,21 @@
       <c r="C6" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
+      <c r="D6" s="5">
+        <v>0.5655</v>
+      </c>
+      <c r="E6" s="5">
+        <v>0.47670000000000001</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0.91379999999999995</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.57189999999999996</v>
+      </c>
+      <c r="H6" s="5">
+        <v>0.66259999999999997</v>
+      </c>
     </row>
     <row r="7" spans="1:8" ht="18">
       <c r="A7" s="1" t="s">
@@ -707,11 +752,21 @@
       <c r="C7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
+      <c r="D7" s="5">
+        <v>0.65169999999999995</v>
+      </c>
+      <c r="E7" s="5">
+        <v>0.57950000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <v>0.96550000000000002</v>
+      </c>
+      <c r="G7" s="5">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="H7" s="5">
+        <v>0.83050000000000002</v>
+      </c>
     </row>
     <row r="8" spans="1:8" ht="18">
       <c r="A8" s="2" t="s">
@@ -721,11 +776,21 @@
       <c r="C8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
+      <c r="D8" s="5">
+        <v>0.65169999999999995</v>
+      </c>
+      <c r="E8" s="5">
+        <v>0.55349999999999999</v>
+      </c>
+      <c r="F8" s="5">
+        <v>0.94830000000000003</v>
+      </c>
+      <c r="G8" s="5">
+        <v>0.71389999999999998</v>
+      </c>
+      <c r="H8" s="5">
+        <v>0.83909999999999996</v>
+      </c>
     </row>
     <row r="9" spans="1:8" ht="18">
       <c r="A9" s="4"/>
@@ -772,11 +837,21 @@
       <c r="C11" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
+      <c r="D11" s="5">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="E11" s="5">
+        <v>0.50609999999999999</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>0.50439999999999996</v>
+      </c>
+      <c r="H11" s="5">
+        <v>0.7016</v>
+      </c>
     </row>
     <row r="12" spans="1:8" ht="18">
       <c r="A12" s="1" t="s">
@@ -786,11 +861,21 @@
       <c r="C12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
+      <c r="D12" s="5">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="E12" s="5">
+        <v>0.59230000000000005</v>
+      </c>
+      <c r="F12" s="5">
+        <v>0.99680000000000002</v>
+      </c>
+      <c r="G12" s="5">
+        <v>0.6079</v>
+      </c>
+      <c r="H12" s="5">
+        <v>0.80730000000000002</v>
+      </c>
     </row>
     <row r="13" spans="1:8" ht="18">
       <c r="A13" s="1" t="s">
@@ -802,11 +887,21 @@
       <c r="C13" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="5"/>
-      <c r="H13" s="5"/>
+      <c r="D13" s="5">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="E13" s="5">
+        <v>0.60360000000000003</v>
+      </c>
+      <c r="F13" s="5">
+        <v>0.997</v>
+      </c>
+      <c r="G13" s="5">
+        <v>0.61450000000000005</v>
+      </c>
+      <c r="H13" s="5">
+        <v>0.79930000000000001</v>
+      </c>
     </row>
     <row r="14" spans="1:8" ht="18">
       <c r="A14" s="1" t="s">
@@ -816,11 +911,21 @@
       <c r="C14" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="5"/>
-      <c r="H14" s="5"/>
+      <c r="D14" s="5">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="E14" s="5">
+        <v>0.54549999999999998</v>
+      </c>
+      <c r="F14" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G14" s="5">
+        <v>0.48809999999999998</v>
+      </c>
+      <c r="H14" s="5">
+        <v>0.58160000000000001</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="18">
       <c r="A15" s="1" t="s">
@@ -830,11 +935,21 @@
       <c r="C15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="5"/>
-      <c r="H15" s="5"/>
+      <c r="D15" s="5">
+        <v>0.40260000000000001</v>
+      </c>
+      <c r="E15" s="5">
+        <v>0.5454</v>
+      </c>
+      <c r="F15" s="5">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.48799999999999999</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.58160000000000001</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="18">
       <c r="A16" s="1" t="s">
@@ -846,11 +961,21 @@
       <c r="C16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="5"/>
-      <c r="H16" s="5"/>
+      <c r="D16" s="5">
+        <v>0.4153</v>
+      </c>
+      <c r="E16" s="5">
+        <v>0.57809999999999995</v>
+      </c>
+      <c r="F16" s="5">
+        <v>0.92969999999999997</v>
+      </c>
+      <c r="G16" s="5">
+        <v>0.54090000000000005</v>
+      </c>
+      <c r="H16" s="5">
+        <v>0.66679999999999995</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="18">
       <c r="A17" s="1" t="s">
@@ -860,11 +985,21 @@
       <c r="C17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
+      <c r="D17" s="5">
+        <v>0.42109999999999997</v>
+      </c>
+      <c r="E17" s="5">
+        <v>0.57420000000000004</v>
+      </c>
+      <c r="F17" s="5">
+        <v>0.9073</v>
+      </c>
+      <c r="G17" s="5">
+        <v>0.53310000000000002</v>
+      </c>
+      <c r="H17" s="5">
+        <v>0.63839999999999997</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="18">
       <c r="A19" s="1" t="s">
@@ -902,11 +1037,21 @@
       <c r="C20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="5"/>
-      <c r="H20" s="5"/>
+      <c r="D20" s="5">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="E20" s="5">
+        <v>0.64439999999999997</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+      <c r="G20" s="5">
+        <v>0.67100000000000004</v>
+      </c>
+      <c r="H20" s="5">
+        <v>0.85060000000000002</v>
+      </c>
     </row>
     <row r="21" spans="1:8" ht="18">
       <c r="A21" s="1" t="s">
@@ -916,11 +1061,21 @@
       <c r="C21" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="5"/>
-      <c r="H21" s="5"/>
+      <c r="D21" s="5">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="E21" s="5">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+      <c r="G21" s="5">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="H21" s="5">
+        <v>0.83430000000000004</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="18">
       <c r="A22" s="1" t="s">
@@ -932,11 +1087,21 @@
       <c r="C22" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="5"/>
-      <c r="H22" s="5"/>
+      <c r="D22" s="5">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.64129999999999998</v>
+      </c>
+      <c r="F22" s="5">
+        <v>1</v>
+      </c>
+      <c r="G22" s="5">
+        <v>0.66210000000000002</v>
+      </c>
+      <c r="H22" s="5">
+        <v>0.83430000000000004</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="18">
       <c r="A23" s="1" t="s">
@@ -946,11 +1111,21 @@
       <c r="C23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="5"/>
-      <c r="G23" s="5"/>
-      <c r="H23" s="5"/>
+      <c r="D23" s="5">
+        <v>0.4945</v>
+      </c>
+      <c r="E23" s="5">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="F23" s="5">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="G23" s="5">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="H23" s="5">
+        <v>0.64900000000000002</v>
+      </c>
     </row>
     <row r="24" spans="1:8" ht="18">
       <c r="A24" s="1" t="s">
@@ -960,11 +1135,21 @@
       <c r="C24" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
+      <c r="D24" s="5">
+        <v>0.4945</v>
+      </c>
+      <c r="E24" s="5">
+        <v>0.56020000000000003</v>
+      </c>
+      <c r="F24" s="5">
+        <v>0.91139999999999999</v>
+      </c>
+      <c r="G24" s="5">
+        <v>0.55430000000000001</v>
+      </c>
+      <c r="H24" s="5">
+        <v>0.64900000000000002</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="18">
       <c r="A25" s="1" t="s">
@@ -976,11 +1161,21 @@
       <c r="C25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D25" s="5"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="5"/>
-      <c r="G25" s="5"/>
-      <c r="H25" s="5"/>
+      <c r="D25" s="5">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="E25" s="5">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="F25" s="5">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="G25" s="5">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="H25" s="5">
+        <v>0.64990000000000003</v>
+      </c>
     </row>
     <row r="26" spans="1:8" ht="18">
       <c r="A26" s="1" t="s">
@@ -990,11 +1185,21 @@
       <c r="C26" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D26" s="5"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
+      <c r="D26" s="5">
+        <v>0.49270000000000003</v>
+      </c>
+      <c r="E26" s="5">
+        <v>0.55969999999999998</v>
+      </c>
+      <c r="F26" s="5">
+        <v>0.91269999999999996</v>
+      </c>
+      <c r="G26" s="5">
+        <v>0.55379999999999996</v>
+      </c>
+      <c r="H26" s="5">
+        <v>0.64990000000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
